--- a/docs/git.xlsx
+++ b/docs/git.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Study\DemoS\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vhm\DemoS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0993E0D7-E59E-4001-AC82-561C9A260C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA3CD93-E221-41EF-9E2C-086D35583D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Commands</t>
   </si>
@@ -383,6 +383,21 @@
   </si>
   <si>
     <t>You can also view the diff using the same syntax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MergeRequest </t>
+  </si>
+  <si>
+    <t>1) change Deiscription "Dev validation build https://jenkins.emeter.com/job/OPT/job/8x/job/mtm-cdh/3512/"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) assignee will be </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) reviewer will be </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) squash if you need one commit for master if you have multiple in your branch </t>
   </si>
 </sst>
 </file>
@@ -868,15 +883,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="52" style="6" customWidth="1"/>
-    <col min="2" max="2" width="52.36328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="88.26953125" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="88.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -909,7 +924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -920,7 +935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="43.5">
+    <row r="5" spans="1:3" ht="43.2">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -931,7 +946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29">
+    <row r="6" spans="1:3" ht="28.8">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -939,7 +954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29">
+    <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -947,7 +962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29">
+    <row r="8" spans="1:3" ht="28.8">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -963,7 +978,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.5">
+    <row r="10" spans="1:3" ht="40.200000000000003">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -971,7 +986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26">
+    <row r="11" spans="1:3" ht="22.8">
       <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
@@ -1035,12 +1050,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29">
+    <row r="19" spans="1:3" ht="28.8">
       <c r="B19" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="29.5">
+    <row r="20" spans="1:3" ht="28.8">
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
@@ -1096,15 +1111,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FCEF3B-C04A-4E29-802C-B479335A4956}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="63.7265625" customWidth="1"/>
+    <col min="1" max="1" width="63.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1112,6 +1127,31 @@
         <v>49</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/git.xlsx
+++ b/docs/git.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Study\DemoS\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Study\DemoS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0993E0D7-E59E-4001-AC82-561C9A260C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE026FE-F5B4-499D-BABA-AAE7EEEC53CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Commands</t>
   </si>
@@ -266,32 +266,7 @@
     <t>changes will be reapplied</t>
   </si>
   <si>
-    <t>git stash</t>
-  </si>
-  <si>
     <t xml:space="preserve">stash changes after local commit </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git stash --include-untracked  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t xml:space="preserve"> or</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFD84AD0"/>
-        <rFont val="Inherit"/>
-      </rPr>
-      <t xml:space="preserve"> git stash --all</t>
-    </r>
   </si>
   <si>
     <t>http://git-scm.com/docs/git-stash</t>
@@ -383,13 +358,278 @@
   </si>
   <si>
     <t>You can also view the diff using the same syntax</t>
+  </si>
+  <si>
+    <t>git reset --hard origin/master</t>
+  </si>
+  <si>
+    <t>To Override local changes from remote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To make local changes same as of release/1.0 branch not master </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF232629"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>If you want to "re-track" changes, do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF232629"/>
+        <rFont val="Var(--ff-mono)"/>
+      </rPr>
+      <t>git update-index --no-assume-unchanged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF232629"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> In Eclipse, this works as follows: Right-click on</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF232629"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> file &gt; Team &gt; Advanced &gt; No Assume Unchanged. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF232629"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>After having done this, the file will show up in the Unstaged Changed section of the Git Staging View.</t>
+    </r>
+  </si>
+  <si>
+    <t>If git is not adding file check this</t>
+  </si>
+  <si>
+    <t>git status --ignored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to list all ignored files </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to add back again use git add -f &lt;fileName&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git add  -f  em-mtm-test/locallib/stax2-api-4.2.jar</t>
+    </r>
+  </si>
+  <si>
+    <t>git update-index --no-assume-unchanged</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFD84AD0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>rm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFD84AD0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> file1.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git commit -m </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color rgb="FFD84AD0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"remove file1.txt"</t>
+    </r>
+  </si>
+  <si>
+    <t>to delete a file in git</t>
+  </si>
+  <si>
+    <t>git stash</t>
+  </si>
+  <si>
+    <t>To delete all stash</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git stash clear</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git stash --include-untracked  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD84AD0"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> git stash --all </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> for msg</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD84AD0"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> git stash  -m "my first stash"</t>
+    </r>
+  </si>
+  <si>
+    <t>$ git push &lt;remote_name&gt; --delete &lt;branch_name&gt;   git push origin --delete &lt;branch&gt;  # Git version 1.7.0 or newer
+git push origin -d &lt;branch&gt;        # Shorter version (Git 1.7.0 or newer)
+git push origin :&lt;branch&gt;          # Git versions older than 1.7.0</t>
+  </si>
+  <si>
+    <t>git checkout FROM_BRANCH_NAME path/to/file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To override changes of file from other branch </t>
+  </si>
+  <si>
+    <t>To overwrite a file in a branch from another branch, i.e, master to redesign do (when redesign is the current branch)
+git checkout master ./path_to_file/default.aspx.cs
+git checkout branch_name ./path_to_file/file_name.[file_extension]</t>
+  </si>
+  <si>
+    <t>https://jasonrudolph.com/blog/2009/02/25/git-tip-how-to-merge-specific-files-from-another-branch/</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/merging-only-one-file-from-a-git-branch-patching-3a9b5a9c3fa6</t>
+  </si>
+  <si>
+    <t>git checkout --patch release/2.1 em-mtm-jobs/src/com/emeter/mtm/aggregation/MTMAggregationJobRDDImpl.java</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">merge specific files </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD84AD0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">git checkout --patch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>fix_branch</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFD84AD0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> folder1/update.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Undo a commit &amp; redo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> $ git commit -m "Something terribly misguided" # (0: Your Accident)
+$ git reset HEAD~                              # (1)
+[ edit files as necessary ]                    # (2)
+$ git add .                                    # (3)
+$ git commit -c ORIG_HEAD                      # (4)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,13 +712,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFD84AD0"/>
-      <name val="Open Sans"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
@@ -507,6 +740,54 @@
       <color rgb="FF232629"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFD84AD0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF232629"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF232629"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF232629"/>
+      <name val="Var(--ff-mono)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFD84AD0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFD84AD0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -535,7 +816,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,23 +843,32 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,17 +1156,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="52" style="6" customWidth="1"/>
-    <col min="2" max="2" width="52.36328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="88.26953125" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="88.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -909,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -920,7 +1210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="43.5">
+    <row r="5" spans="1:3" ht="43.2">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -931,7 +1221,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29">
+    <row r="6" spans="1:3" ht="28.8">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -939,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29">
+    <row r="7" spans="1:3" ht="28.8">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -947,7 +1237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29">
+    <row r="8" spans="1:3" ht="28.8">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -963,24 +1253,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.5">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:3" ht="72.599999999999994">
+      <c r="A10" s="20" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="26">
-      <c r="A11" s="10" t="s">
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26.4">
+      <c r="A11" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -991,101 +1284,185 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="13" t="s">
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="13" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="12" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C18" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="14" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="28.8">
+      <c r="B20" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="29">
-      <c r="B19" s="15" t="s">
+    <row r="21" spans="1:3" ht="29.4">
+      <c r="A21" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="29.5">
-      <c r="A20" s="7" t="s">
+      <c r="B21" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="57.6">
+      <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
+      <c r="C22" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B23" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="18" t="s">
+      <c r="B24" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="17" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="18" t="s">
+      <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B26" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="18" t="s">
+    <row r="27" spans="1:3" ht="15.6">
+      <c r="A27" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B27" s="14" t="s">
         <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="40.200000000000003">
+      <c r="A29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="86.4">
+      <c r="A33" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="43.2">
+      <c r="A34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="C35" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1102,14 +1479,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="63.7265625" customWidth="1"/>
+    <col min="1" max="1" width="63.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
